--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741828.4754178771</v>
+        <v>817164.4107271893</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>309.6412404517417</v>
+        <v>141.1762660121947</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +712,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189216</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>146.842886239454</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.3691750088697</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>99.59933623926702</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>316.3713552875034</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>146.842886239454</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>61.36917500886971</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>398.2527805383294</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>56.91547624318606</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1221,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G9" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>115.0138334144182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>195.0465954186446</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482877</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>81.46084344268498</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>61.36917500887013</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863186</v>
       </c>
       <c r="Y14" t="n">
-        <v>299.3798747282134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.2532214802693</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>251.2285928046449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>184.5496477570992</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>260.1478989722372</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.08802744677315</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>297.8304163214462</v>
       </c>
       <c r="H20" t="n">
-        <v>201.6086852141651</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>12.27603560330612</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>225.750889292396</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>105.0023863360942</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.2282989658138</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>81.46084344268519</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>110.0923443600239</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>188.2196394312107</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>149.3991884271816</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>81.4608434426853</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>173.5578851713662</v>
+        <v>210.0946544764315</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>81.46084344268519</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>184.147735321692</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3044,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>132.9870153438501</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>115.0138334144185</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>237.8986635778429</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>224.7411810187691</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>195.0465954186451</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>82.95557033125411</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>121.8713578254451</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>323.5668830180526</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>56.22992883261846</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>150.4026958753524</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>113.4448687040857</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>13.77617170029382</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3828,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933838</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>134.9994691657081</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>87.93270968653144</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>161.2026687524965</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>288.2822493900552</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>165.9631450002751</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>131.5522128412688</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1605.60199849331</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533244</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1992.201838557432</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025388</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796247</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>821.1650657389509</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>821.1650657389509</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>821.1650657389509</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
         <v>312.3844025601599</v>
@@ -4638,19 +4640,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D7" t="n">
-        <v>128.5011820977084</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>128.5011820977084</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>128.5011820977084</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>128.5011820977084</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>128.5011820977084</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720648</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5011820977084</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796247</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796247</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796247</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796247</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F8" t="n">
-        <v>510.7845510900171</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,16 +4816,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4835,19 +4837,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F9" t="n">
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4899,10 +4901,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
         <v>2564.909189125856</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.6877057396765</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C10" t="n">
-        <v>182.6877057396765</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D10" t="n">
-        <v>182.6877057396765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>182.6877057396765</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>182.6877057396765</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>182.6877057396765</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>631.469835781224</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>403.4802848832067</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.6877057396765</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1647.321240915451</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C11" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3128.589058560035</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2797.526171216464</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.060412955384</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>2033.921080979572</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5111,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
         <v>66.5121164321834</v>
@@ -5121,7 +5123,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.151745215813</v>
@@ -5130,10 +5132,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5197,46 +5199,46 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T13" t="n">
-        <v>920.8870058181845</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U13" t="n">
-        <v>838.6033255730482</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V13" t="n">
-        <v>583.9188373671614</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W13" t="n">
-        <v>294.5016673302007</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X13" t="n">
         <v>66.51211643218342</v>
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1506.396382525582</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1137.43386558517</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>779.1681669784198</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>779.1681669784198</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5300,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W14" t="n">
-        <v>2182.266054653544</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X14" t="n">
-        <v>1808.800296392464</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>1506.396382525582</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5348,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>920.8870058181845</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C16" t="n">
-        <v>920.8870058181845</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D16" t="n">
-        <v>770.7703664058488</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E16" t="n">
-        <v>622.8572728234557</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F16" t="n">
-        <v>475.9673253255453</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S16" t="n">
-        <v>920.8870058181845</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T16" t="n">
-        <v>920.8870058181845</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U16" t="n">
-        <v>920.8870058181845</v>
+        <v>163.837793613838</v>
       </c>
       <c r="V16" t="n">
-        <v>920.8870058181845</v>
+        <v>163.837793613838</v>
       </c>
       <c r="W16" t="n">
-        <v>920.8870058181845</v>
+        <v>163.837793613838</v>
       </c>
       <c r="X16" t="n">
-        <v>920.8870058181845</v>
+        <v>163.837793613838</v>
       </c>
       <c r="Y16" t="n">
-        <v>920.8870058181845</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.62132134232</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3139.192035995939</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2808.129148652368</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W17" t="n">
-        <v>2455.360493382254</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X17" t="n">
-        <v>2455.360493382254</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="Y17" t="n">
-        <v>2065.221161406442</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U19" t="n">
-        <v>920.8870058181855</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V19" t="n">
-        <v>920.8870058181855</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W19" t="n">
-        <v>920.8870058181855</v>
+        <v>87.68248070098099</v>
       </c>
       <c r="X19" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y19" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2209.232076102166</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C20" t="n">
-        <v>1840.269559161754</v>
+        <v>1522.390776791883</v>
       </c>
       <c r="D20" t="n">
-        <v>1482.003860555003</v>
+        <v>1164.125078185132</v>
       </c>
       <c r="E20" t="n">
-        <v>1096.215607956759</v>
+        <v>778.3368255868882</v>
       </c>
       <c r="F20" t="n">
-        <v>685.2297031671517</v>
+        <v>367.3509207972806</v>
       </c>
       <c r="G20" t="n">
-        <v>270.1572530121481</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339057</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077977</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y20" t="n">
-        <v>2209.232076102166</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>216.6287558445192</v>
+        <v>2923.1647776354</v>
       </c>
       <c r="C22" t="n">
-        <v>216.6287558445192</v>
+        <v>2754.228594707493</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>2604.111955295158</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>2604.111955295158</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>2604.111955295158</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W22" t="n">
-        <v>631.4698357812244</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X22" t="n">
-        <v>619.069799818289</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="Y22" t="n">
-        <v>398.2772206747588</v>
+        <v>3104.81324246564</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1822.632236038044</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C23" t="n">
-        <v>1453.669719097632</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.404020490882</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E23" t="n">
-        <v>709.6157678926375</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F23" t="n">
-        <v>709.6157678926375</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G23" t="n">
-        <v>294.5433177376339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H23" t="n">
         <v>66.51211643218343</v>
@@ -5990,7 +5992,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -6002,7 +6004,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296687</v>
@@ -6017,22 +6019,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V23" t="n">
-        <v>3325.605821609171</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W23" t="n">
-        <v>2972.837166339057</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X23" t="n">
-        <v>2599.371408077977</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.232076102166</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6099,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6108,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>547.5526568147717</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C25" t="n">
-        <v>378.6164738868648</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D25" t="n">
-        <v>378.6164738868648</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E25" t="n">
-        <v>378.6164738868648</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F25" t="n">
-        <v>378.6164738868648</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G25" t="n">
-        <v>212.7293032143257</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L25" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>729.2011216450114</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>729.2011216450114</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U25" t="n">
-        <v>729.2011216450114</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V25" t="n">
-        <v>729.2011216450114</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W25" t="n">
-        <v>729.2011216450114</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X25" t="n">
-        <v>729.2011216450114</v>
+        <v>2553.514612468307</v>
       </c>
       <c r="Y25" t="n">
-        <v>729.2011216450114</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E26" t="n">
-        <v>709.6157678926361</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F26" t="n">
-        <v>298.6298631030285</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="27">
@@ -6294,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>217.4203875707507</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>838.6033255730482</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>838.6033255730482</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>838.6033255730482</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V28" t="n">
-        <v>583.9188373671614</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W28" t="n">
-        <v>294.5016673302007</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="X28" t="n">
-        <v>66.5121164321834</v>
+        <v>438.2129667142808</v>
       </c>
       <c r="Y28" t="n">
-        <v>66.5121164321834</v>
+        <v>217.4203875707507</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1822.632236038042</v>
+        <v>2217.803762225667</v>
       </c>
       <c r="C29" t="n">
-        <v>1453.669719097631</v>
+        <v>1848.841245285255</v>
       </c>
       <c r="D29" t="n">
-        <v>1453.669719097631</v>
+        <v>1490.575546678505</v>
       </c>
       <c r="E29" t="n">
-        <v>1067.881466499387</v>
+        <v>1104.787294080261</v>
       </c>
       <c r="F29" t="n">
-        <v>656.895561709779</v>
+        <v>693.8013892906531</v>
       </c>
       <c r="G29" t="n">
-        <v>241.8231115547755</v>
+        <v>278.7289391356496</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W29" t="n">
-        <v>2972.837166339056</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X29" t="n">
-        <v>2599.371408077976</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.232076102164</v>
+        <v>2604.403602289789</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D30" t="n">
         <v>618.1564155387305</v>
@@ -6528,46 +6530,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T30" t="n">
         <v>2242.828302297192</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>848.0708164780106</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C31" t="n">
-        <v>679.1346335501037</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574644</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U31" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V31" t="n">
-        <v>920.8870058181849</v>
+        <v>3070.921333403285</v>
       </c>
       <c r="W31" t="n">
-        <v>920.8870058181849</v>
+        <v>2781.504163366324</v>
       </c>
       <c r="X31" t="n">
-        <v>920.8870058181849</v>
+        <v>2553.514612468307</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.8870058181849</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>2731.767278738087</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>2731.767278738087</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X32" t="n">
-        <v>2731.767278738087</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="33">
@@ -6768,22 +6770,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2638.93376884845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>2638.93376884845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>2638.93376884845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>2638.93376884845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>2638.93376884845</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S34" t="n">
-        <v>3133.919937435996</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="T34" t="n">
-        <v>3133.919937435996</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="U34" t="n">
-        <v>3133.919937435996</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="V34" t="n">
-        <v>2879.23544923011</v>
+        <v>804.7114165106916</v>
       </c>
       <c r="W34" t="n">
-        <v>2638.93376884845</v>
+        <v>515.2942464737309</v>
       </c>
       <c r="X34" t="n">
-        <v>2638.93376884845</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y34" t="n">
-        <v>2638.93376884845</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1647.321240915451</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C35" t="n">
-        <v>1278.358723975039</v>
+        <v>1863.635716540142</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1505.370017933391</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>1119.581765335147</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>708.5958605455396</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>293.5234103905361</v>
       </c>
       <c r="H35" t="n">
         <v>66.5121164321834</v>
@@ -6944,7 +6946,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6959,28 +6961,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3128.589058560035</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>2797.526171216464</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W35" t="n">
-        <v>2797.526171216464</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X35" t="n">
-        <v>2424.060412955384</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y35" t="n">
-        <v>2033.921080979572</v>
+        <v>2619.198073544675</v>
       </c>
     </row>
     <row r="36">
@@ -7017,10 +7019,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2471.230932223169</v>
+        <v>2765.361212587704</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.230932223169</v>
+        <v>2765.361212587704</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.230932223169</v>
+        <v>2765.361212587704</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.230932223169</v>
+        <v>2617.448119005311</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.230932223169</v>
+        <v>2617.448119005311</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.230932223169</v>
+        <v>2617.448119005311</v>
       </c>
       <c r="H37" t="n">
         <v>2471.230932223169</v>
@@ -7117,28 +7119,28 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193524</v>
+        <v>3241.812316224065</v>
       </c>
       <c r="T37" t="n">
-        <v>2822.32286476305</v>
+        <v>3020.045700793591</v>
       </c>
       <c r="U37" t="n">
-        <v>2822.32286476305</v>
+        <v>3020.045700793591</v>
       </c>
       <c r="V37" t="n">
-        <v>2822.32286476305</v>
+        <v>2765.361212587704</v>
       </c>
       <c r="W37" t="n">
-        <v>2699.220483121187</v>
+        <v>2765.361212587704</v>
       </c>
       <c r="X37" t="n">
-        <v>2471.230932223169</v>
+        <v>2765.361212587704</v>
       </c>
       <c r="Y37" t="n">
-        <v>2471.230932223169</v>
+        <v>2765.361212587704</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1506.36381994936</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>1137.401303008948</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1356044021979</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>393.3473518039537</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U38" t="n">
-        <v>3009.337405520488</v>
+        <v>3062.830166081658</v>
       </c>
       <c r="V38" t="n">
-        <v>3009.337405520488</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W38" t="n">
-        <v>2656.568750250373</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X38" t="n">
-        <v>2283.102991989294</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y38" t="n">
-        <v>1892.963660013482</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>624.6477645191717</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="C40" t="n">
-        <v>624.6477645191717</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="D40" t="n">
-        <v>624.6477645191717</v>
+        <v>2933.736809928755</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>2785.823716346362</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>2638.933768848452</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962287</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="X40" t="n">
-        <v>806.2962293494114</v>
+        <v>3083.853449341091</v>
       </c>
       <c r="Y40" t="n">
-        <v>806.2962293494114</v>
+        <v>3083.853449341091</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1990.120246683345</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C41" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D41" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912083</v>
@@ -7415,22 +7417,22 @@
         <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7439,22 +7441,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723278</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X41" t="n">
-        <v>2766.859418723278</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y41" t="n">
-        <v>2376.720086747467</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
@@ -7576,43 +7578,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>758.0560272803096</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U43" t="n">
-        <v>468.9531604059532</v>
+        <v>410.0175235133546</v>
       </c>
       <c r="V43" t="n">
-        <v>468.9531604059532</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="W43" t="n">
-        <v>468.9531604059532</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>155.3330353074677</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>155.3330353074677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.7704558796256</v>
+        <v>1881.708680670283</v>
       </c>
       <c r="C44" t="n">
-        <v>552.807938939214</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D44" t="n">
-        <v>194.5422403324635</v>
+        <v>1154.480465123121</v>
       </c>
       <c r="E44" t="n">
-        <v>66.51211643218342</v>
+        <v>768.692212524877</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>357.7063077352695</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>357.7063077352695</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7670,28 +7672,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180639</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y44" t="n">
-        <v>1308.370295943747</v>
+        <v>2268.308520734405</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7724,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2790.283754563412</v>
+        <v>2937.173702061322</v>
       </c>
       <c r="C46" t="n">
-        <v>2621.347571635505</v>
+        <v>2768.237519133415</v>
       </c>
       <c r="D46" t="n">
-        <v>2471.230932223169</v>
+        <v>2618.120879721079</v>
       </c>
       <c r="E46" t="n">
-        <v>2471.230932223169</v>
+        <v>2618.120879721079</v>
       </c>
       <c r="F46" t="n">
         <v>2471.230932223169</v>
@@ -7804,52 +7806,52 @@
         <v>2471.230932223169</v>
       </c>
       <c r="J46" t="n">
-        <v>2483.053685760609</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K46" t="n">
         <v>2581.364540028279</v>
       </c>
       <c r="L46" t="n">
-        <v>2737.074383950637</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M46" t="n">
         <v>2904.506865249834</v>
       </c>
       <c r="N46" t="n">
-        <v>3075.815702279682</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O46" t="n">
         <v>3213.734051497871</v>
       </c>
       <c r="P46" t="n">
-        <v>3312.68505425063</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U46" t="n">
-        <v>3192.724798537182</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V46" t="n">
-        <v>3192.724798537182</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W46" t="n">
-        <v>3192.724798537182</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X46" t="n">
-        <v>3192.724798537182</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="Y46" t="n">
-        <v>2971.932219393652</v>
+        <v>3104.81324246564</v>
       </c>
     </row>
   </sheetData>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>55.63165131926581</v>
+        <v>224.0966257588129</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22606,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22677,7 +22679,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.506350599811412e-12</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22708,22 +22710,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22752,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>190.7684683149583</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>265.6735555317405</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>69.86658336855021</v>
       </c>
     </row>
     <row r="6">
@@ -22908,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22945,22 +22947,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>34.98324540096841</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.66894511512402</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>312.815624435283</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23182,22 +23184,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>29.74118149990257</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -23239,13 +23241,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>55.94857654025736</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>204.7509947629279</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>225.1538233277209</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>168.0688818921504</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.85806392784019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>1.772586778758892</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>34.98324540096797</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,19 +23788,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>66.44552420180275</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>126.0900396838164</v>
       </c>
     </row>
     <row r="18">
@@ -23887,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>107.7439527351641</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23944,16 +23946,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>204.7509947629275</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>113.0913093320073</v>
       </c>
       <c r="H20" t="n">
-        <v>92.99907917315539</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>34.47359541775941</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24187,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>213.433619785731</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>68.8568750949245</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24257,13 +24259,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>145.9927856228078</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>1.797509293214461</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24412,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24421,16 +24423,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094096</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>255.1805474109836</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>222.7020862222428</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>16.62661983184663</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24649,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>108.3081818887566</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>121.0498792159543</v>
+        <v>84.513109910889</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24737,13 +24739,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24895,16 +24897,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094096</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>181.1251564493156</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>194.7652431262848</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25123,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>74.75519191702344</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -25132,16 +25134,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>48.62433475874812</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>69.86658336855135</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25202,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>55.94857654025691</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>106.8134550001878</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>164.6516405111459</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>83.30916272365886</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>194.7652431262835</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>39.36632945608946</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>112.2647866849514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>351.4967200707137</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25681,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>78.09309857249679</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25837,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>58.34628052367273</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>6.325514997265259</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>13.86883518166223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26077,7 +26079,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>154.6596253643441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>806150.3945534362</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534363</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="16">
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>345493.0262371869</v>
+      </c>
+      <c r="C2" t="n">
         <v>345493.026237187</v>
-      </c>
-      <c r="C2" t="n">
-        <v>345493.0262371868</v>
       </c>
       <c r="D2" t="n">
         <v>345493.0262371869</v>
@@ -26323,25 +26325,25 @@
         <v>345493.0262371868</v>
       </c>
       <c r="F2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="G2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="H2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="I2" t="n">
-        <v>345493.026237187</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="J2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="K2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="L2" t="n">
-        <v>345493.0262371868</v>
+        <v>345493.026237187</v>
       </c>
       <c r="M2" t="n">
         <v>345493.0262371869</v>
@@ -26350,10 +26352,10 @@
         <v>345493.0262371867</v>
       </c>
       <c r="O2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.026237187</v>
       </c>
       <c r="P2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="D4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="E4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.646989006123</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="H4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="I4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="J4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="K4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="L4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="M4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="N4" t="n">
+        <v>584.6469890061231</v>
+      </c>
+      <c r="O4" t="n">
         <v>584.6469890061232</v>
-      </c>
-      <c r="H4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="I4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="J4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="K4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>584.646989006123</v>
-      </c>
-      <c r="M4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="N4" t="n">
-        <v>584.6469890061232</v>
-      </c>
-      <c r="O4" t="n">
-        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
         <v>584.6469890061231</v>
@@ -26479,25 +26481,25 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26509,7 +26511,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26522,34 +26524,34 @@
         <v>-1091770.307040805</v>
       </c>
       <c r="C6" t="n">
-        <v>236974.4386867874</v>
+        <v>236974.4386867875</v>
       </c>
       <c r="D6" t="n">
-        <v>236974.4386867874</v>
+        <v>236974.4386867875</v>
       </c>
       <c r="E6" t="n">
         <v>270602.0386867874</v>
       </c>
       <c r="F6" t="n">
+        <v>270602.0386867873</v>
+      </c>
+      <c r="G6" t="n">
+        <v>270602.0386867875</v>
+      </c>
+      <c r="H6" t="n">
         <v>270602.0386867874</v>
       </c>
-      <c r="G6" t="n">
-        <v>270602.0386867871</v>
-      </c>
-      <c r="H6" t="n">
-        <v>270602.0386867877</v>
-      </c>
       <c r="I6" t="n">
+        <v>270602.0386867874</v>
+      </c>
+      <c r="J6" t="n">
+        <v>53070.83628950997</v>
+      </c>
+      <c r="K6" t="n">
+        <v>270602.0386867873</v>
+      </c>
+      <c r="L6" t="n">
         <v>270602.0386867875</v>
-      </c>
-      <c r="J6" t="n">
-        <v>53070.83628951013</v>
-      </c>
-      <c r="K6" t="n">
-        <v>270602.0386867875</v>
-      </c>
-      <c r="L6" t="n">
-        <v>270602.0386867874</v>
       </c>
       <c r="M6" t="n">
         <v>270602.0386867875</v>
@@ -26561,7 +26563,7 @@
         <v>270602.0386867875</v>
       </c>
       <c r="P6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867874</v>
       </c>
     </row>
   </sheetData>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33436,7 +33438,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746405</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
         <v>473.099994678169</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -34129,7 +34131,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.281137600381</v>
@@ -34226,7 +34228,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34378,7 +34380,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099059</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O13" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O16" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K19" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M19" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -37084,7 +37086,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219371</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37148,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37874,7 +37876,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38026,7 +38028,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
